--- a/Pubmed/Lassa/Reference_Summary_Mar18.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Mar18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Dropbox/___SystematicReviewsAI/LASV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38CEDC-5A18-3D4F-9AD1-259F94634012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50143A56-3E83-E048-AB29-901B0B125289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="25780" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9700" yWindow="500" windowWidth="25780" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="442">
   <si>
     <t>Title</t>
   </si>
@@ -1097,9 +1097,6 @@
   </si>
   <si>
     <t>Sierra Leone, Liberia</t>
-  </si>
-  <si>
-    <t>Sequences for rJosiah (HQ688673.1, HQ688675.1) and rNJ2015 (MG812650, MG812651) have been deposited in Genbank</t>
   </si>
   <si>
     <t>Contains list of seq downloaded from GB</t>
@@ -1598,86 +1595,6 @@
   </si>
   <si>
     <t>1969-2018</t>
-  </si>
-  <si>
-    <t>MK107897.1
-MK107958.1
-MK107960.1
-MK107966.1
-MK107967.1
-MK107973.1
-MK107971.1
-MK107972.1
-MK107898.1
-MK107963.1
-MK107965.1
-MK107968.1
-MK107970.1
-MK107961.1
-MK107964.1
-MK107962.1
-MK107901.1
-MK107974.1
-MK107946.1
-MK107976.1
-MK107975.1
-MK107899.1
-MK107945.1
-MK107900.1
-MK107910.1
-MK107947.1
-MK107948.1
-MK107902.1
-MK107907.1
-MK107908.1
-MK107909.1
-MK107951.1
-MK107978.1
-MK107982.1
-MK107979.1
-MK107981.1
-MK107950.1
-MK107952.1
-MK107912.1
-MK107911.1
-MK107913.1
-MK107915.1
-MK107916.1
-MK107980.1
-MK107914.1
-MK107949.1
-MK107940.1
-MK107942.1
-MK107953.1
-MK107927.1
-MK107922.1
-MK107931.1
-MK107939.1
-MK107941.1
-MK107932.1
-MK107917.1
-MK107928.1
-MK107918.1
-MK107933.1
-MK107930.1
-MK107936.1
-MK107923.1
-MK107919.1
-MK107935.1
-MK107924.1
-MK107955.1
-MK107929.1
-MK107956.1
-MK107921.1
-MK107925.1
-MK107926.1
-MK107920.1
-MK107938.1
-MK107957.1
-MK107954.1
-MK107934.1
-MK107937.1
-MK117846.1</t>
   </si>
   <si>
     <t>clinical samples (likely blood or serum)</t>
@@ -1970,9 +1887,6 @@
     <t>2014-2016</t>
   </si>
   <si>
-    <t>MF317933-35</t>
-  </si>
-  <si>
     <t>Sequence, Not in GenBank</t>
   </si>
   <si>
@@ -2684,9 +2598,6 @@
     <t>Guinea pig (Hartley strain)</t>
   </si>
   <si>
-    <t>MZ169798 (L segment) and MZ169799 (S segment).</t>
-  </si>
-  <si>
     <t>Circulation of Lassa virus across the endemic Edo-Ondo axis, Nigeria, with cross-species transmission between multimammate mice.</t>
   </si>
   <si>
@@ -3092,7 +3003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3100,7 +3011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3405,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3414,7 +3324,7 @@
     <col min="1" max="1" width="68.33203125" customWidth="1"/>
     <col min="2" max="2" width="119.5" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -3698,7 +3608,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
@@ -3855,7 +3765,7 @@
         <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -4563,7 +4473,7 @@
         <v>118</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L15" t="s">
         <v>36</v>
@@ -5255,7 +5165,7 @@
       <c r="N24" t="s">
         <v>172</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" t="s">
         <v>156</v>
       </c>
       <c r="R24" t="s">
@@ -5326,7 +5236,7 @@
       <c r="N25" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
@@ -5409,7 +5319,6 @@
       <c r="N26" t="s">
         <v>185</v>
       </c>
-      <c r="O26" s="3"/>
       <c r="Q26" t="s">
         <v>41</v>
       </c>
@@ -5473,7 +5382,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L27" t="s">
         <v>36</v>
@@ -6325,9 +6234,6 @@
       <c r="J38" t="s">
         <v>259</v>
       </c>
-      <c r="K38" t="s">
-        <v>260</v>
-      </c>
       <c r="L38" t="s">
         <v>197</v>
       </c>
@@ -6371,24 +6277,24 @@
         <v>37</v>
       </c>
       <c r="AB38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC38" t="s">
         <v>261</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
         <v>263</v>
-      </c>
-      <c r="B39" t="s">
-        <v>264</v>
       </c>
       <c r="C39">
         <v>2018</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39">
         <v>30332564</v>
@@ -6403,25 +6309,25 @@
         <v>241</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
         <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s">
         <v>197</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
         <v>156</v>
       </c>
       <c r="P39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q39" t="s">
         <v>105</v>
@@ -6457,15 +6363,15 @@
         <v>37</v>
       </c>
       <c r="AC39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" t="s">
         <v>270</v>
-      </c>
-      <c r="B40" t="s">
-        <v>271</v>
       </c>
       <c r="C40">
         <v>2018</v>
@@ -6486,13 +6392,13 @@
         <v>241</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s">
         <v>36</v>
@@ -6540,21 +6446,21 @@
         <v>37</v>
       </c>
       <c r="AC40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" t="s">
         <v>274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>275</v>
       </c>
       <c r="C41">
         <v>2019</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41">
         <v>30606844</v>
@@ -6575,7 +6481,7 @@
         <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s">
         <v>197</v>
@@ -6587,7 +6493,7 @@
         <v>149</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q41" t="s">
         <v>105</v>
@@ -6623,21 +6529,21 @@
         <v>37</v>
       </c>
       <c r="AC41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" t="s">
         <v>280</v>
-      </c>
-      <c r="B42" t="s">
-        <v>281</v>
       </c>
       <c r="C42">
         <v>2019</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E42">
         <v>30718881</v>
@@ -6658,7 +6564,7 @@
         <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L42" t="s">
         <v>197</v>
@@ -6670,7 +6576,7 @@
         <v>156</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q42" t="s">
         <v>105</v>
@@ -6706,15 +6612,15 @@
         <v>37</v>
       </c>
       <c r="AC42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s">
         <v>285</v>
-      </c>
-      <c r="B43" t="s">
-        <v>286</v>
       </c>
       <c r="C43">
         <v>2019</v>
@@ -6732,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I43">
         <v>2018</v>
@@ -6741,19 +6647,19 @@
         <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s">
         <v>197</v>
       </c>
       <c r="N43" t="s">
+        <v>288</v>
+      </c>
+      <c r="O43" t="s">
         <v>289</v>
       </c>
-      <c r="O43" t="s">
+      <c r="R43" t="s">
         <v>290</v>
-      </c>
-      <c r="R43" t="s">
-        <v>291</v>
       </c>
       <c r="S43" t="s">
         <v>63</v>
@@ -6782,10 +6688,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44" t="s">
         <v>292</v>
-      </c>
-      <c r="B44" t="s">
-        <v>293</v>
       </c>
       <c r="C44">
         <v>2019</v>
@@ -6806,22 +6712,22 @@
         <v>232</v>
       </c>
       <c r="I44" t="s">
+        <v>293</v>
+      </c>
+      <c r="J44" t="s">
         <v>294</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>295</v>
-      </c>
-      <c r="K44" t="s">
-        <v>296</v>
       </c>
       <c r="L44" t="s">
         <v>36</v>
       </c>
       <c r="N44" t="s">
+        <v>296</v>
+      </c>
+      <c r="O44" t="s">
         <v>297</v>
-      </c>
-      <c r="O44" t="s">
-        <v>298</v>
       </c>
       <c r="P44" t="s">
         <v>40</v>
@@ -6859,10 +6765,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" t="s">
         <v>299</v>
-      </c>
-      <c r="B45" t="s">
-        <v>300</v>
       </c>
       <c r="C45">
         <v>2019</v>
@@ -6883,25 +6789,22 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J45" t="s">
         <v>34</v>
       </c>
-      <c r="K45" t="s">
-        <v>302</v>
-      </c>
       <c r="L45" t="s">
         <v>197</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O45" t="s">
         <v>149</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q45" t="s">
         <v>105</v>
@@ -6937,15 +6840,15 @@
         <v>37</v>
       </c>
       <c r="AC45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -6972,16 +6875,16 @@
         <v>205</v>
       </c>
       <c r="K46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s">
         <v>197</v>
       </c>
       <c r="N46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R46" t="s">
         <v>62</v>
@@ -7016,10 +6919,10 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47">
         <v>2019</v>
@@ -7040,13 +6943,10 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J47" t="s">
-        <v>295</v>
-      </c>
-      <c r="K47" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s">
         <v>36</v>
@@ -7058,7 +6958,7 @@
         <v>160</v>
       </c>
       <c r="P47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q47" t="s">
         <v>41</v>
@@ -7093,16 +6993,16 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E48">
         <v>31554720</v>
@@ -7114,7 +7014,7 @@
         <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I48">
         <v>2012</v>
@@ -7123,13 +7023,13 @@
         <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S48" t="s">
         <v>63</v>
@@ -7158,16 +7058,16 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E49">
         <v>31588039</v>
@@ -7182,13 +7082,13 @@
         <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K49" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s">
         <v>197</v>
@@ -7236,21 +7136,21 @@
         <v>37</v>
       </c>
       <c r="AC49" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E50">
         <v>32046182</v>
@@ -7265,22 +7165,22 @@
         <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s">
         <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P50" t="s">
         <v>40</v>
@@ -7316,24 +7216,24 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC50" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C51">
         <v>2020</v>
       </c>
       <c r="D51" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E51">
         <v>32459576</v>
@@ -7348,13 +7248,13 @@
         <v>232</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J51" t="s">
         <v>110</v>
       </c>
       <c r="K51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s">
         <v>36</v>
@@ -7363,7 +7263,7 @@
         <v>132</v>
       </c>
       <c r="O51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P51" t="s">
         <v>40</v>
@@ -7399,24 +7299,24 @@
         <v>37</v>
       </c>
       <c r="AB51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52">
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E52">
         <v>32723007</v>
@@ -7431,13 +7331,13 @@
         <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L52" t="s">
         <v>235</v>
@@ -7446,7 +7346,7 @@
         <v>44</v>
       </c>
       <c r="N52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O52" t="s">
         <v>149</v>
@@ -7485,18 +7385,18 @@
         <v>37</v>
       </c>
       <c r="AB52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -7523,7 +7423,7 @@
         <v>110</v>
       </c>
       <c r="K53" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s">
         <v>197</v>
@@ -7568,21 +7468,21 @@
         <v>37</v>
       </c>
       <c r="AB53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E54">
         <v>33466234</v>
@@ -7597,19 +7497,19 @@
         <v>232</v>
       </c>
       <c r="I54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s">
         <v>235</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O54" t="s">
         <v>39</v>
@@ -7651,21 +7551,21 @@
         <v>37</v>
       </c>
       <c r="AC54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E55">
         <v>33654106</v>
@@ -7677,10 +7577,10 @@
         <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s">
         <v>36</v>
@@ -7689,7 +7589,7 @@
         <v>37</v>
       </c>
       <c r="N55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
         <v>160</v>
@@ -7727,16 +7627,16 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E56">
         <v>34127846</v>
@@ -7745,19 +7645,19 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
+        <v>361</v>
+      </c>
+      <c r="H56" t="s">
+        <v>362</v>
+      </c>
+      <c r="K56" t="s">
+        <v>363</v>
+      </c>
+      <c r="N56" t="s">
         <v>364</v>
       </c>
-      <c r="H56" t="s">
+      <c r="O56" t="s">
         <v>365</v>
-      </c>
-      <c r="K56" t="s">
-        <v>366</v>
-      </c>
-      <c r="N56" t="s">
-        <v>367</v>
-      </c>
-      <c r="O56" t="s">
-        <v>368</v>
       </c>
       <c r="R56" t="s">
         <v>62</v>
@@ -7792,16 +7692,16 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E57">
         <v>34522759</v>
@@ -7822,13 +7722,13 @@
         <v>110</v>
       </c>
       <c r="K57" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s">
         <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P57" t="s">
         <v>40</v>
@@ -7864,24 +7764,24 @@
         <v>37</v>
       </c>
       <c r="AB57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC57" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E58">
         <v>34634087</v>
@@ -7902,7 +7802,7 @@
         <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s">
         <v>197</v>
@@ -7947,24 +7847,24 @@
         <v>37</v>
       </c>
       <c r="AB58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC58" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E59">
         <v>34857749</v>
@@ -7976,7 +7876,7 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="R59" t="s">
         <v>62</v>
@@ -8011,10 +7911,10 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C60">
         <v>2022</v>
@@ -8032,19 +7932,19 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s">
         <v>197</v>
       </c>
       <c r="N60" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s">
         <v>69</v>
@@ -8083,21 +7983,21 @@
         <v>37</v>
       </c>
       <c r="AC60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C61">
         <v>2023</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E61">
         <v>36968239</v>
@@ -8112,19 +8012,19 @@
         <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K61" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s">
         <v>197</v>
       </c>
       <c r="N61" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O61" t="s">
         <v>149</v>
@@ -8163,18 +8063,18 @@
         <v>37</v>
       </c>
       <c r="AB61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC61" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -8192,16 +8092,13 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I62">
         <v>2018</v>
       </c>
       <c r="J62" t="s">
         <v>34</v>
-      </c>
-      <c r="K62" t="s">
-        <v>400</v>
       </c>
       <c r="L62" t="s">
         <v>197</v>
@@ -8245,16 +8142,16 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C63">
         <v>2023</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E63">
         <v>37288752</v>
@@ -8269,19 +8166,19 @@
         <v>232</v>
       </c>
       <c r="I63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J63" t="s">
         <v>34</v>
       </c>
       <c r="K63" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s">
         <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O63" t="s">
         <v>39</v>
@@ -8320,24 +8217,24 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC63" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C64">
         <v>2023</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E64">
         <v>37542071</v>
@@ -8346,28 +8243,28 @@
         <v>593</v>
       </c>
       <c r="G64" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H64" t="s">
         <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J64" t="s">
         <v>34</v>
       </c>
       <c r="K64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s">
         <v>197</v>
       </c>
       <c r="N64" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S64" t="s">
         <v>42</v>
@@ -8397,21 +8294,21 @@
         <v>37</v>
       </c>
       <c r="AC64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C65">
         <v>2024</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E65">
         <v>38047354</v>
@@ -8426,25 +8323,25 @@
         <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K65" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s">
         <v>197</v>
       </c>
       <c r="N65" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O65" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P65" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q65" t="s">
         <v>105</v>
@@ -8480,21 +8377,21 @@
         <v>37</v>
       </c>
       <c r="AC65" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C66">
         <v>2024</v>
       </c>
       <c r="D66" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E66">
         <v>38088796</v>
@@ -8506,25 +8403,25 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I66" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J66" t="s">
         <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s">
         <v>197</v>
       </c>
       <c r="N66" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O66" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P66" t="s">
         <v>244</v>
@@ -8562,16 +8459,16 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C67">
         <v>2024</v>
       </c>
       <c r="D67" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E67">
         <v>38826374</v>
@@ -8592,7 +8489,7 @@
         <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s">
         <v>36</v>
@@ -8604,13 +8501,13 @@
         <v>89</v>
       </c>
       <c r="O67" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q67" t="s">
         <v>105</v>
       </c>
       <c r="R67" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="S67" t="s">
         <v>63</v>
@@ -8642,16 +8539,16 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C68">
         <v>2024</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E68">
         <v>39551823</v>
@@ -8663,22 +8560,22 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K68" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L68" t="s">
         <v>197</v>
       </c>
       <c r="N68" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O68" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="R68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S68" t="s">
         <v>63</v>
@@ -8706,11 +8603,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC68" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC68">
-      <sortCondition ref="E1:E68"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AC68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>